--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0022-005 - Admin SLN melakukan approval pengajuan cancel ditolak.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0022-005 - Admin SLN melakukan approval pengajuan cancel ditolak.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF45897-7E68-4076-91B9-8F9CBE1E8B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509B138-5F02-4E49-B906-1CB2FF0008A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0318" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0022" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -122,9 +122,6 @@
     <t>Approval</t>
   </si>
   <si>
-    <t>DGS-333</t>
-  </si>
-  <si>
     <t>Admin SLN melakukan approval pengajuan cancel di tolak</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
 Penyelia
 -	Pada bagian monitoring status nya tetap distujui
 -	Di report data ada</t>
+  </si>
+  <si>
+    <t>SCD0022-005</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -253,7 +253,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,14 +570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -647,16 +655,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5">
         <v>52326</v>
@@ -677,11 +685,11 @@
       </c>
       <c r="M2" s="3" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-09-07</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N2" s="3" t="str">
         <f ca="1">TEXT(TODAY()+30,"yyyy-mm-dd")</f>
-        <v>2022-10-07</v>
+        <v>2022-12-10</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>20</v>
@@ -699,51 +707,56 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="8">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5">
         <v>19340</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="5">
         <v>50043</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="5">
         <v>52326</v>
@@ -757,25 +770,32 @@
       <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="5">
         <v>50043</v>
       </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5">
         <v>50043</v>
@@ -789,12 +809,18 @@
       <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="5">
         <v>50043</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>2022</v>
       </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
